--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/18.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/18.xlsx
@@ -479,13 +479,13 @@
         <v>-14.18157504004578</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.45033121131621</v>
+        <v>-10.41915843825006</v>
       </c>
       <c r="F2" t="n">
-        <v>2.905833901882009</v>
+        <v>2.884362525221578</v>
       </c>
       <c r="G2" t="n">
-        <v>-16.02722017589774</v>
+        <v>-15.97816331714979</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.9697596441089</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.94999894927068</v>
+        <v>-10.92246583639453</v>
       </c>
       <c r="F3" t="n">
-        <v>2.764882169487986</v>
+        <v>2.746474391692519</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.58587864710315</v>
+        <v>-15.5395188027406</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-13.71072669345534</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.20880759184592</v>
+        <v>-11.19417039726887</v>
       </c>
       <c r="F4" t="n">
-        <v>2.891746584024312</v>
+        <v>2.875538313106255</v>
       </c>
       <c r="G4" t="n">
-        <v>-15.05260296775396</v>
+        <v>-15.00735596913296</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-13.4175202652338</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.73493487384353</v>
+        <v>-11.7251680159236</v>
       </c>
       <c r="F5" t="n">
-        <v>2.937595828576036</v>
+        <v>2.925734202201432</v>
       </c>
       <c r="G5" t="n">
-        <v>-14.41763937223309</v>
+        <v>-14.37384561922752</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-13.10606193931165</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.48352656572774</v>
+        <v>-12.46720046408411</v>
       </c>
       <c r="F6" t="n">
-        <v>2.965194402966395</v>
+        <v>2.951107085108697</v>
       </c>
       <c r="G6" t="n">
-        <v>-13.92386317055739</v>
+        <v>-13.87965046386088</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-12.79842938937142</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.76385895417478</v>
+        <v>-12.75688075676014</v>
       </c>
       <c r="F7" t="n">
-        <v>3.204155114433579</v>
+        <v>3.183469275943652</v>
       </c>
       <c r="G7" t="n">
-        <v>-13.25937643212843</v>
+        <v>-13.21313441849145</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-12.49263286877454</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.55733106020043</v>
+        <v>-13.55123004707619</v>
       </c>
       <c r="F8" t="n">
-        <v>3.347358722916379</v>
+        <v>3.323085593447819</v>
       </c>
       <c r="G8" t="n">
-        <v>-12.96407954153329</v>
+        <v>-12.9152583442365</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-12.21355845013341</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.18967619515296</v>
+        <v>-14.18145422896835</v>
       </c>
       <c r="F9" t="n">
-        <v>3.509101032223063</v>
+        <v>3.486189502250042</v>
       </c>
       <c r="G9" t="n">
-        <v>-12.3543971827998</v>
+        <v>-12.29922621862476</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-11.95342395413812</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.17831525964022</v>
+        <v>-15.16702969459065</v>
       </c>
       <c r="F10" t="n">
-        <v>3.686711212573918</v>
+        <v>3.663721128783847</v>
       </c>
       <c r="G10" t="n">
-        <v>-12.02238947503646</v>
+        <v>-11.963945435151</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-11.72766239265502</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.05111362858388</v>
+        <v>-16.03857120246151</v>
       </c>
       <c r="F11" t="n">
-        <v>3.857984718349379</v>
+        <v>3.835649249701394</v>
       </c>
       <c r="G11" t="n">
-        <v>-11.52003781499944</v>
+        <v>-11.47134754073106</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-11.5393896746753</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.84347288886799</v>
+        <v>-16.83612810697378</v>
       </c>
       <c r="F12" t="n">
-        <v>3.890584552425277</v>
+        <v>3.87005582156945</v>
       </c>
       <c r="G12" t="n">
-        <v>-11.27950602719124</v>
+        <v>-11.23306762901164</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-11.3821226305348</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.45284103233329</v>
+        <v>-17.44962032583422</v>
       </c>
       <c r="F13" t="n">
-        <v>3.759949554670534</v>
+        <v>3.736802363246362</v>
       </c>
       <c r="G13" t="n">
-        <v>-10.70269844089332</v>
+        <v>-10.65095766006282</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-11.26664206710737</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.39047248494918</v>
+        <v>-18.39733285163825</v>
       </c>
       <c r="F14" t="n">
-        <v>4.010195831187287</v>
+        <v>3.984403994589086</v>
       </c>
       <c r="G14" t="n">
-        <v>-10.14262281762712</v>
+        <v>-10.08535708499741</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-11.1696718863409</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.22015790063505</v>
+        <v>-19.23144346568461</v>
       </c>
       <c r="F15" t="n">
-        <v>4.052222123309226</v>
+        <v>4.025225794849588</v>
       </c>
       <c r="G15" t="n">
-        <v>-9.653402737340341</v>
+        <v>-9.597236758149336</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-11.08927621663121</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.23746910834569</v>
+        <v>-20.24223470658007</v>
       </c>
       <c r="F16" t="n">
-        <v>4.26690970530785</v>
+        <v>4.2410393148926</v>
       </c>
       <c r="G16" t="n">
-        <v>-9.128349024175758</v>
+        <v>-9.070467953312487</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-11.00101258269436</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.21164117819284</v>
+        <v>-21.2147047770578</v>
       </c>
       <c r="F17" t="n">
-        <v>4.450411421937483</v>
+        <v>4.428233060923599</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.773704724799083</v>
+        <v>-8.712341101379913</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-10.89046821779485</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.98732084465658</v>
+        <v>-21.98737321386795</v>
       </c>
       <c r="F18" t="n">
-        <v>4.727287442434307</v>
+        <v>4.700212560157617</v>
       </c>
       <c r="G18" t="n">
-        <v>-8.263327483120076</v>
+        <v>-8.205708258313638</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-10.75037061679937</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.67579268189159</v>
+        <v>-22.68900281545889</v>
       </c>
       <c r="F19" t="n">
-        <v>4.920058509475881</v>
+        <v>4.891491104675235</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.727341697082652</v>
+        <v>-7.665493658458338</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-10.56132201560796</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.40321412008073</v>
+        <v>-23.40779642607534</v>
       </c>
       <c r="F20" t="n">
-        <v>5.004713339650482</v>
+        <v>4.982456424819548</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.036120476250883</v>
+        <v>-6.966050471441965</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-10.33189465463358</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.08100263819689</v>
+        <v>-24.08788918949164</v>
       </c>
       <c r="F21" t="n">
-        <v>5.040245849562926</v>
+        <v>5.022257025458394</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.876027797102256</v>
+        <v>-6.810540098287943</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-10.05445233034014</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.79482117373348</v>
+        <v>-24.80699701537629</v>
       </c>
       <c r="F22" t="n">
-        <v>5.35634640937356</v>
+        <v>5.339771553975935</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.727639636694133</v>
+        <v>-6.661588968857625</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-9.742866550475741</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.33380509712166</v>
+        <v>-25.34359813964727</v>
       </c>
       <c r="F23" t="n">
-        <v>5.338148108423561</v>
+        <v>5.320787714855433</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.385930532525083</v>
+        <v>-6.329267045826092</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-9.408634548238865</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.76795895165614</v>
+        <v>-25.77929688591707</v>
       </c>
       <c r="F24" t="n">
-        <v>5.241395990423205</v>
+        <v>5.229455810231551</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.080487107227613</v>
+        <v>-6.022383467216033</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-9.057224372719254</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.12219738964472</v>
+        <v>-26.12403031204256</v>
       </c>
       <c r="F25" t="n">
-        <v>5.350140657826582</v>
+        <v>5.336341370631403</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.784155924707986</v>
+        <v>-5.735413281228239</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-8.712725155846675</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.45176992907949</v>
+        <v>-26.45078800636636</v>
       </c>
       <c r="F26" t="n">
-        <v>5.334429894416511</v>
+        <v>5.327255312459245</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.531592310588248</v>
+        <v>-5.489068510958321</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-8.376220558791344</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.20827928082907</v>
+        <v>-26.2074413734472</v>
       </c>
       <c r="F27" t="n">
-        <v>5.442860346551686</v>
+        <v>5.437571056203629</v>
       </c>
       <c r="G27" t="n">
-        <v>-5.085498275862116</v>
+        <v>-5.045056152384024</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-8.067474029791216</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.38882213701647</v>
+        <v>-26.38469806162133</v>
       </c>
       <c r="F28" t="n">
-        <v>5.249801248847594</v>
+        <v>5.241343621211839</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.900216006046008</v>
+        <v>-4.861790097205542</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-7.789319704507071</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.51076384568431</v>
+        <v>-26.5099783075138</v>
       </c>
       <c r="F29" t="n">
-        <v>5.291932279392269</v>
+        <v>5.285098097308887</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.85646152994896</v>
+        <v>-4.820955204642199</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-7.548784125532823</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.57814992841067</v>
+        <v>-26.5686187319419</v>
       </c>
       <c r="F30" t="n">
-        <v>5.279311299452845</v>
+        <v>5.272608040397881</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.847833702376263</v>
+        <v>-4.816556190887379</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-7.356218763650253</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.21115958745425</v>
+        <v>-26.20338275956626</v>
       </c>
       <c r="F31" t="n">
-        <v>5.161271097031842</v>
+        <v>5.151347131477814</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.056983240272836</v>
+        <v>-5.027708851118737</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-7.205212063441478</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.89797861117732</v>
+        <v>-25.8852005236038</v>
       </c>
       <c r="F32" t="n">
-        <v>5.201673943601409</v>
+        <v>5.184837242146949</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.14226650098384</v>
+        <v>-5.112036373722295</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-7.108388769182011</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.74528308313427</v>
+        <v>-25.72616832098535</v>
       </c>
       <c r="F33" t="n">
-        <v>5.103586410711197</v>
+        <v>5.085676140423716</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.207400707621427</v>
+        <v>-5.174224812220493</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-7.056746466728013</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.25500252631731</v>
+        <v>-25.23473564151832</v>
       </c>
       <c r="F34" t="n">
-        <v>5.152525438733569</v>
+        <v>5.136238613998461</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.440168759844475</v>
+        <v>-5.404374403875196</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-7.056710528002878</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.91803283577697</v>
+        <v>-24.89948104265024</v>
       </c>
       <c r="F35" t="n">
-        <v>4.989369160719979</v>
+        <v>4.973815504944008</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.55617965532501</v>
+        <v>-5.518644023077781</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-7.106190871762771</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.39959073554746</v>
+        <v>-24.38556887920397</v>
       </c>
       <c r="F36" t="n">
-        <v>5.17255666208141</v>
+        <v>5.149095255389037</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.581919122711843</v>
+        <v>-5.548193350591557</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.196959140715562</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.86796468635633</v>
+        <v>-23.84374392609913</v>
       </c>
       <c r="F37" t="n">
-        <v>5.136317167815512</v>
+        <v>5.114819606549398</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.652002219823602</v>
+        <v>-5.625372475843532</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.334211166040881</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.26205291084124</v>
+        <v>-23.23918065777675</v>
       </c>
       <c r="F38" t="n">
-        <v>4.944148346704657</v>
+        <v>4.924038569539766</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.688791590808853</v>
+        <v>-5.659818324620113</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.501817104559161</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.17861566483092</v>
+        <v>-23.15148841334287</v>
       </c>
       <c r="F39" t="n">
-        <v>5.090441738658104</v>
+        <v>5.071719745594436</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.695756695920651</v>
+        <v>-5.661179924115652</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.702153520991866</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.4612098383157</v>
+        <v>-22.43380764846797</v>
       </c>
       <c r="F40" t="n">
-        <v>5.258180322666298</v>
+        <v>5.241841128719824</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.741278632901333</v>
+        <v>-5.710367705892017</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-7.920076310715294</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.94237496900094</v>
+        <v>-21.9196467312677</v>
       </c>
       <c r="F41" t="n">
-        <v>5.22777999546781</v>
+        <v>5.209476956095077</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.815472713105394</v>
+        <v>-5.785150939723957</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-8.149094323451216</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.12078059647126</v>
+        <v>-21.09489711375317</v>
       </c>
       <c r="F42" t="n">
-        <v>5.366113267293488</v>
+        <v>5.346265336185431</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.050689025959845</v>
+        <v>-6.015025593018983</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.385011476304639</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.62772447145186</v>
+        <v>-20.6028883729611</v>
       </c>
       <c r="F43" t="n">
-        <v>5.351554626533488</v>
+        <v>5.336577032082554</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.143238514748006</v>
+        <v>-6.116098170957108</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-8.612900145155002</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.97364611378207</v>
+        <v>-19.94754006191566</v>
       </c>
       <c r="F44" t="n">
-        <v>5.232074270799896</v>
+        <v>5.210445786505365</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.165744183332934</v>
+        <v>-6.136391240361784</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-8.836604993017872</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.45077881519205</v>
+        <v>-19.4230885946818</v>
       </c>
       <c r="F45" t="n">
-        <v>5.151608977534648</v>
+        <v>5.132756061442563</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.158621970587035</v>
+        <v>-6.125079490706533</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-9.040898749170047</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.78284880111571</v>
+        <v>-18.75365296577866</v>
       </c>
       <c r="F46" t="n">
-        <v>5.374858925591761</v>
+        <v>5.35490625606097</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.373807060093644</v>
+        <v>-6.33455633617415</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-9.229549594687064</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.42951373202321</v>
+        <v>-18.40056665044015</v>
       </c>
       <c r="F47" t="n">
-        <v>5.406620852285789</v>
+        <v>5.381247969378523</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.618934246199282</v>
+        <v>-6.573438493824283</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-9.398813573446086</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.79896224256</v>
+        <v>-17.76971403801158</v>
       </c>
       <c r="F48" t="n">
-        <v>5.31651962412903</v>
+        <v>5.287323788791981</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.775046865284023</v>
+        <v>-6.728359713350428</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-9.54311878488042</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.31311997640639</v>
+        <v>-17.28052014233049</v>
       </c>
       <c r="F49" t="n">
-        <v>5.338226662240611</v>
+        <v>5.309214119143347</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.085687934809657</v>
+        <v>-7.041095551330739</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-9.671320080136574</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.69314706763929</v>
+        <v>-16.66349300170278</v>
       </c>
       <c r="F50" t="n">
-        <v>5.198165206439826</v>
+        <v>5.171902046939324</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.29232375056062</v>
+        <v>-7.244130983800226</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-9.77368610660335</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.91137948035414</v>
+        <v>-15.88465809025418</v>
       </c>
       <c r="F51" t="n">
-        <v>5.127519140305872</v>
+        <v>5.103795887556664</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.362014078587128</v>
+        <v>-7.305612437944972</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-9.860761413632135</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.42981839722977</v>
+        <v>-15.40380399148327</v>
       </c>
       <c r="F52" t="n">
-        <v>5.040219664957243</v>
+        <v>5.012175952270265</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.604130035039168</v>
+        <v>-7.5506741625364</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-9.927078887367243</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.84764296676674</v>
+        <v>-14.8216809302316</v>
       </c>
       <c r="F53" t="n">
-        <v>4.981068640718324</v>
+        <v>4.955302988725808</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.861184309033618</v>
+        <v>-7.807139282902972</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-9.975485144978618</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.13203078574084</v>
+        <v>-14.10888359431666</v>
       </c>
       <c r="F54" t="n">
-        <v>4.821525838289051</v>
+        <v>4.793115541122505</v>
       </c>
       <c r="G54" t="n">
-        <v>-8.148442525683929</v>
+        <v>-8.089226039930802</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-10.01423941635638</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.58859547938647</v>
+        <v>-13.56461038058043</v>
       </c>
       <c r="F55" t="n">
-        <v>4.896439995149407</v>
+        <v>4.868762866941998</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.459306164357873</v>
+        <v>-8.402760508384459</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-10.03754915653786</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.27019067427569</v>
+        <v>-13.24761954417656</v>
       </c>
       <c r="F56" t="n">
-        <v>4.794555694435095</v>
+        <v>4.766642904776535</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.493503259380462</v>
+        <v>-8.434038019873341</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-10.06075359792352</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.95194297679902</v>
+        <v>-12.93405889111722</v>
       </c>
       <c r="F57" t="n">
-        <v>4.719720091391789</v>
+        <v>4.687303549555675</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.833340164243145</v>
+        <v>-8.774712832117896</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-10.07679199845456</v>
       </c>
       <c r="E58" t="n">
-        <v>-12.4616755122849</v>
+        <v>-12.45264182332411</v>
       </c>
       <c r="F58" t="n">
-        <v>4.615767206828484</v>
+        <v>4.58790678638129</v>
       </c>
       <c r="G58" t="n">
-        <v>-9.264220943067192</v>
+        <v>-9.205292487976584</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-10.09659318074682</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.15060239676549</v>
+        <v>-12.13960486237844</v>
       </c>
       <c r="F59" t="n">
-        <v>4.602098842661722</v>
+        <v>4.572798268901939</v>
       </c>
       <c r="G59" t="n">
-        <v>-9.620789810961602</v>
+        <v>-9.558483541737827</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-10.12328243801725</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.82566453253669</v>
+        <v>-11.80958718464705</v>
       </c>
       <c r="F60" t="n">
-        <v>4.506289370465971</v>
+        <v>4.475731935633382</v>
       </c>
       <c r="G60" t="n">
-        <v>-9.690768169650626</v>
+        <v>-9.636264912920522</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-10.15244270057847</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.67933186367472</v>
+        <v>-11.65960176329224</v>
       </c>
       <c r="F61" t="n">
-        <v>4.362771546714969</v>
+        <v>4.336298910368999</v>
       </c>
       <c r="G61" t="n">
-        <v>-10.08504286972921</v>
+        <v>-10.03369485798396</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-10.19673563347659</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.62867774398008</v>
+        <v>-11.60190398466875</v>
       </c>
       <c r="F62" t="n">
-        <v>4.252089218491017</v>
+        <v>4.227711350599723</v>
       </c>
       <c r="G62" t="n">
-        <v>-10.27838999809582</v>
+        <v>-10.22609934054596</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-10.24455743538021</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.39079060134592</v>
+        <v>-11.36200062739696</v>
       </c>
       <c r="F63" t="n">
-        <v>4.337267740779287</v>
+        <v>4.311921042477705</v>
       </c>
       <c r="G63" t="n">
-        <v>-10.49585314829689</v>
+        <v>-10.44913981175761</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-10.30598514707279</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.34875121692113</v>
+        <v>-11.31913642789315</v>
       </c>
       <c r="F64" t="n">
-        <v>4.230225072745334</v>
+        <v>4.206135235516558</v>
       </c>
       <c r="G64" t="n">
-        <v>-10.71660246651123</v>
+        <v>-10.666328023599</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-10.37340951450456</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.43233247826271</v>
+        <v>-11.40139536664771</v>
       </c>
       <c r="F65" t="n">
-        <v>4.236875962588932</v>
+        <v>4.214723786180731</v>
       </c>
       <c r="G65" t="n">
-        <v>-10.56211329297886</v>
+        <v>-10.51894797050969</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-10.44415363864946</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.29185206877099</v>
+        <v>-11.25986757292866</v>
       </c>
       <c r="F66" t="n">
-        <v>4.25727377041634</v>
+        <v>4.235514363093392</v>
       </c>
       <c r="G66" t="n">
-        <v>-10.7407839498599</v>
+        <v>-10.69976576505677</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-10.52305183270223</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.57043008863724</v>
+        <v>-11.53866816194321</v>
       </c>
       <c r="F67" t="n">
-        <v>3.960445080388727</v>
+        <v>3.936957489090671</v>
       </c>
       <c r="G67" t="n">
-        <v>-10.84811464855637</v>
+        <v>-10.80616691025148</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.5962656074007</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.56002170787807</v>
+        <v>-11.53195181058541</v>
       </c>
       <c r="F68" t="n">
-        <v>4.09563619953239</v>
+        <v>4.071048854795629</v>
       </c>
       <c r="G68" t="n">
-        <v>-10.63772134188983</v>
+        <v>-10.59370501973595</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-10.67273516796276</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.52468558250825</v>
+        <v>-11.4921643022494</v>
       </c>
       <c r="F69" t="n">
-        <v>4.054735845454839</v>
+        <v>4.030907854282897</v>
       </c>
       <c r="G69" t="n">
-        <v>-10.73266672209803</v>
+        <v>-10.68062481830217</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.73740834240204</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.71932884885619</v>
+        <v>-11.69013301351914</v>
       </c>
       <c r="F70" t="n">
-        <v>3.802656646540244</v>
+        <v>3.786526929439238</v>
       </c>
       <c r="G70" t="n">
-        <v>-10.79168682330853</v>
+        <v>-10.74502585598062</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.79386758890313</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.67765604891098</v>
+        <v>-11.65010984373198</v>
       </c>
       <c r="F71" t="n">
-        <v>3.728082889553773</v>
+        <v>3.705354651820536</v>
       </c>
       <c r="G71" t="n">
-        <v>-10.78849230141515</v>
+        <v>-10.74443670235274</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.84041545071863</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.83963401966881</v>
+        <v>-11.81123681480511</v>
       </c>
       <c r="F72" t="n">
-        <v>3.754424602871326</v>
+        <v>3.734262456495067</v>
       </c>
       <c r="G72" t="n">
-        <v>-10.95917665356273</v>
+        <v>-10.91526506983158</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.86782883679027</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.25316749722757</v>
+        <v>-12.21825032554869</v>
       </c>
       <c r="F73" t="n">
-        <v>3.873328897279882</v>
+        <v>3.848479706486286</v>
       </c>
       <c r="G73" t="n">
-        <v>-10.73326896802875</v>
+        <v>-10.69374330574958</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.88721930248412</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.56757914997162</v>
+        <v>-12.53093379431763</v>
       </c>
       <c r="F74" t="n">
-        <v>3.852459766550171</v>
+        <v>3.833004604527365</v>
       </c>
       <c r="G74" t="n">
-        <v>-10.64140027898836</v>
+        <v>-10.60300055475357</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.8868795350187</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.8497444608165</v>
+        <v>-12.81946196434359</v>
       </c>
       <c r="F75" t="n">
-        <v>3.81263298130564</v>
+        <v>3.790611727925857</v>
       </c>
       <c r="G75" t="n">
-        <v>-10.57102915121408</v>
+        <v>-10.53027281246779</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-10.87723112710836</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.09942776831106</v>
+        <v>-13.06735162634883</v>
       </c>
       <c r="F76" t="n">
-        <v>3.824049469383625</v>
+        <v>3.802080585215208</v>
       </c>
       <c r="G76" t="n">
-        <v>-10.51591055625041</v>
+        <v>-10.47639798627408</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-10.85419970752768</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.53328049988018</v>
+        <v>-13.50452980283975</v>
       </c>
       <c r="F77" t="n">
-        <v>3.829757713422617</v>
+        <v>3.809517013229309</v>
       </c>
       <c r="G77" t="n">
-        <v>-10.29348542327233</v>
+        <v>-10.25367173033064</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.81530793574087</v>
       </c>
       <c r="E78" t="n">
-        <v>-14.28179363794734</v>
+        <v>-14.2569313548509</v>
       </c>
       <c r="F78" t="n">
-        <v>3.800483324268518</v>
+        <v>3.782285023318519</v>
       </c>
       <c r="G78" t="n">
-        <v>-9.984363060876333</v>
+        <v>-9.945020690836948</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.76788221616121</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.89427774948897</v>
+        <v>-14.86732069793786</v>
       </c>
       <c r="F79" t="n">
-        <v>3.959842834458008</v>
+        <v>3.936433796977001</v>
       </c>
       <c r="G79" t="n">
-        <v>-10.01100589715925</v>
+        <v>-9.968233343775328</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.69889143054734</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.28294894395129</v>
+        <v>-15.24966831012762</v>
       </c>
       <c r="F80" t="n">
-        <v>3.982073564683259</v>
+        <v>3.963377756225273</v>
       </c>
       <c r="G80" t="n">
-        <v>-9.603966201809984</v>
+        <v>-9.562921832401171</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-10.6166477193727</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.82807315737224</v>
+        <v>-15.80040912146767</v>
       </c>
       <c r="F81" t="n">
-        <v>3.975317936416928</v>
+        <v>3.953401421459878</v>
       </c>
       <c r="G81" t="n">
-        <v>-9.412661472686683</v>
+        <v>-9.371054134255676</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-10.50870378289952</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.65495682024997</v>
+        <v>-16.63368182813217</v>
       </c>
       <c r="F82" t="n">
-        <v>3.871600713304774</v>
+        <v>3.847091922385063</v>
       </c>
       <c r="G82" t="n">
-        <v>-9.174761237749678</v>
+        <v>-9.132263622725434</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-10.37567322361522</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.62232089261943</v>
+        <v>-17.59760262485425</v>
       </c>
       <c r="F83" t="n">
-        <v>3.96767203155736</v>
+        <v>3.948426346380022</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.983404139415009</v>
+        <v>-8.942608523760191</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-10.21713776337827</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.55353711684288</v>
+        <v>-18.52824278775267</v>
       </c>
       <c r="F84" t="n">
-        <v>3.904279101197722</v>
+        <v>3.880870063716716</v>
       </c>
       <c r="G84" t="n">
-        <v>-8.680880297651244</v>
+        <v>-8.638696897895203</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-10.02171688458024</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.58831345654438</v>
+        <v>-19.55771674480327</v>
       </c>
       <c r="F85" t="n">
-        <v>4.058296951827788</v>
+        <v>4.037349267281026</v>
       </c>
       <c r="G85" t="n">
-        <v>-8.474558697168485</v>
+        <v>-8.433959466056292</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-9.797745550013406</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.77058768006077</v>
+        <v>-20.74051466043333</v>
       </c>
       <c r="F86" t="n">
-        <v>4.054814399271889</v>
+        <v>4.035830560151386</v>
       </c>
       <c r="G86" t="n">
-        <v>-8.331355088685685</v>
+        <v>-8.289237150443851</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-9.534294895869252</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.97651969481216</v>
+        <v>-21.94343544553112</v>
       </c>
       <c r="F87" t="n">
-        <v>4.011897830556711</v>
+        <v>3.995480082793186</v>
       </c>
       <c r="G87" t="n">
-        <v>-8.177847837866446</v>
+        <v>-8.133752961895512</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-9.23669859684702</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.39607881503199</v>
+        <v>-23.35961675161779</v>
       </c>
       <c r="F88" t="n">
-        <v>4.219986891923105</v>
+        <v>4.210481880060011</v>
       </c>
       <c r="G88" t="n">
-        <v>-8.100079558986593</v>
+        <v>-8.052331930522818</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.904138796176371</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.8971767973501</v>
+        <v>-24.85985064194833</v>
       </c>
       <c r="F89" t="n">
-        <v>4.092913000541311</v>
+        <v>4.078537652021097</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.836374395148547</v>
+        <v>-7.796482148389807</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-8.53214453628374</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.54390046417672</v>
+        <v>-26.5031048485219</v>
       </c>
       <c r="F90" t="n">
-        <v>4.20197188321289</v>
+        <v>4.195870870088645</v>
       </c>
       <c r="G90" t="n">
-        <v>-8.021565018844761</v>
+        <v>-7.973555544324152</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-8.131401092748717</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.2226479037542</v>
+        <v>-28.18978622362147</v>
       </c>
       <c r="F91" t="n">
-        <v>4.363478531068422</v>
+        <v>4.356618164379358</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.725076728691033</v>
+        <v>-7.68272312899805</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.695766116830388</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.20068538629354</v>
+        <v>-30.16368653846282</v>
       </c>
       <c r="F92" t="n">
-        <v>4.247873496975981</v>
+        <v>4.242819868079075</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.921147056048723</v>
+        <v>-7.870807151622286</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-7.237715828818367</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.04846754786055</v>
+        <v>-32.00793377826257</v>
       </c>
       <c r="F93" t="n">
-        <v>4.154944331405409</v>
+        <v>4.158793468440877</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.81356760359826</v>
+        <v>-7.75698267071632</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.75963522410219</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.03847139519723</v>
+        <v>-33.99902428673511</v>
       </c>
       <c r="F94" t="n">
-        <v>4.456826650329929</v>
+        <v>4.453003697900145</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.640945590630102</v>
+        <v>-7.591509055099744</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.271328970068968</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.1188383167475</v>
+        <v>-36.0863301287915</v>
       </c>
       <c r="F95" t="n">
-        <v>4.143554027933108</v>
+        <v>4.149524118028935</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.445647709140074</v>
+        <v>-7.393265405470328</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.788722225601106</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.36703546842586</v>
+        <v>-38.33835023289964</v>
       </c>
       <c r="F96" t="n">
-        <v>4.026770686584912</v>
+        <v>4.032897884314839</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.511580546251007</v>
+        <v>-7.45836033519939</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.316833431734067</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.30374055089387</v>
+        <v>-40.28494000401315</v>
       </c>
       <c r="F97" t="n">
-        <v>3.815382364902402</v>
+        <v>3.821902331717582</v>
       </c>
       <c r="G97" t="n">
-        <v>-7.117070184721275</v>
+        <v>-7.065800726793076</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.878194369843351</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.86380944856499</v>
+        <v>-42.84591227058035</v>
       </c>
       <c r="F98" t="n">
-        <v>3.793780065213554</v>
+        <v>3.802368615877727</v>
       </c>
       <c r="G98" t="n">
-        <v>-7.144996066682676</v>
+        <v>-7.093909900994261</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.480218645912664</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.98874256898849</v>
+        <v>-44.97287469794432</v>
       </c>
       <c r="F99" t="n">
-        <v>3.677939369669962</v>
+        <v>3.700798530431616</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.871157460445134</v>
+        <v>-6.822454093873914</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.141417508864316</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.2405008270398</v>
+        <v>-47.2325930761234</v>
       </c>
       <c r="F100" t="n">
-        <v>3.569404179112053</v>
+        <v>3.59600773848644</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.675414440658487</v>
+        <v>-6.637878808411259</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.874394929245172</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.61660977748183</v>
+        <v>-49.60476124341007</v>
       </c>
       <c r="F101" t="n">
-        <v>3.279488224984871</v>
+        <v>3.300985786250985</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.686608359588163</v>
+        <v>-6.654506033020251</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.688016665003646</v>
       </c>
       <c r="E102" t="n">
-        <v>-52.01902116433288</v>
+        <v>-52.00856041436234</v>
       </c>
       <c r="F102" t="n">
-        <v>2.873967236765247</v>
+        <v>2.894260306169923</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.72473314546327</v>
+        <v>-6.682274807347552</v>
       </c>
     </row>
   </sheetData>
